--- a/data/trans_orig/P20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10078</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5345</v>
+        <v>5299</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17164</v>
+        <v>17208</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03691428077133602</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01957846444988427</v>
+        <v>0.01940948869111581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06286913425872931</v>
+        <v>0.06303210006031244</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>12585</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6815</v>
+        <v>6982</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22219</v>
+        <v>22243</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0482476309819814</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0261260364991214</v>
+        <v>0.02676674099081468</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08518355142628425</v>
+        <v>0.08527700834881485</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -786,19 +786,19 @@
         <v>22663</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14625</v>
+        <v>13890</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33845</v>
+        <v>33258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04245175447726384</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02739592333805181</v>
+        <v>0.02601889461603861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0633982174851382</v>
+        <v>0.06229884884515453</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>262932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255846</v>
+        <v>255802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267665</v>
+        <v>267711</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9630857192286639</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9371308657412706</v>
+        <v>0.9369678999396871</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9804215355501157</v>
+        <v>0.980590511308884</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -836,19 +836,19 @@
         <v>248253</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>238619</v>
+        <v>238595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>254023</v>
+        <v>253856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9517523690180186</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9148164485737158</v>
+        <v>0.9147229916511852</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9738739635008786</v>
+        <v>0.9732332590091857</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>494</v>
@@ -857,19 +857,19 @@
         <v>511185</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>500003</v>
+        <v>500590</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>519223</v>
+        <v>519958</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9575482455227362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9366017825148618</v>
+        <v>0.9377011511548454</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9726040766619483</v>
+        <v>0.9739811053839614</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>25816</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16279</v>
+        <v>16685</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38308</v>
+        <v>37046</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05235665494075201</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03301622141549232</v>
+        <v>0.03383941321508593</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0776929055288916</v>
+        <v>0.07513190851936517</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -982,19 +982,19 @@
         <v>47275</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34765</v>
+        <v>36346</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60173</v>
+        <v>61940</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09380875869209603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06898503097872019</v>
+        <v>0.07212329434037085</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1194021056949663</v>
+        <v>0.1229084446623468</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -1003,19 +1003,19 @@
         <v>73091</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58623</v>
+        <v>57944</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91497</v>
+        <v>90440</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07330875355237861</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.058797745949008</v>
+        <v>0.05811683114413799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09177032692739885</v>
+        <v>0.09070971495438956</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>467259</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>454767</v>
+        <v>456029</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476796</v>
+        <v>476390</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.947643345059248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9223070944711085</v>
+        <v>0.9248680914806351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9669837785845079</v>
+        <v>0.9661605867849141</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>451</v>
@@ -1053,19 +1053,19 @@
         <v>456674</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>443776</v>
+        <v>442009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>469184</v>
+        <v>467603</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.906191241307904</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8805978943050335</v>
+        <v>0.8770915553376533</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9310149690212797</v>
+        <v>0.9278767056596292</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>892</v>
@@ -1074,19 +1074,19 @@
         <v>923933</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>905527</v>
+        <v>906584</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>938401</v>
+        <v>939080</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9266912464476214</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9082296730726012</v>
+        <v>0.9092902850456105</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.941202254050992</v>
+        <v>0.941883168855862</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7375</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2831</v>
+        <v>2785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15945</v>
+        <v>16640</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02313083394604725</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008878454914455599</v>
+        <v>0.008735441015566019</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05000929947585419</v>
+        <v>0.05218825721260097</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1199,19 +1199,19 @@
         <v>16324</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10023</v>
+        <v>8974</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25719</v>
+        <v>25304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04866764368094813</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02988314750470262</v>
+        <v>0.02675453951534053</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07667875118471675</v>
+        <v>0.07544041594211107</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1220,19 +1220,19 @@
         <v>23699</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15797</v>
+        <v>14756</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36218</v>
+        <v>34999</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03622254028992382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0241443649868358</v>
+        <v>0.02255345505365735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05535746141001758</v>
+        <v>0.05349349082336251</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>311471</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302901</v>
+        <v>302206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316015</v>
+        <v>316061</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9768691660539528</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9499907005241458</v>
+        <v>0.947811742787399</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9911215450855444</v>
+        <v>0.991264558984434</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>318</v>
@@ -1270,19 +1270,19 @@
         <v>319088</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>309693</v>
+        <v>310108</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>325389</v>
+        <v>326438</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9513323563190519</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9233212488152834</v>
+        <v>0.9245595840578891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9701168524952976</v>
+        <v>0.9732454604846595</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>622</v>
@@ -1291,19 +1291,19 @@
         <v>630559</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>618040</v>
+        <v>619259</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638461</v>
+        <v>639502</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9637774597100762</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9446425385899827</v>
+        <v>0.9465065091766377</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9758556350131643</v>
+        <v>0.9774465449463429</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>7395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3629</v>
+        <v>3578</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13937</v>
+        <v>13998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02067111188315916</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01014377426610326</v>
+        <v>0.01000108067046678</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03896120696961237</v>
+        <v>0.03912948876592775</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1416,19 +1416,19 @@
         <v>19581</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12105</v>
+        <v>12692</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28458</v>
+        <v>29794</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0527147456869489</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03258744350969373</v>
+        <v>0.03416732192843547</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07661256031526231</v>
+        <v>0.0802078198305798</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1437,19 +1437,19 @@
         <v>26976</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18554</v>
+        <v>18071</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38663</v>
+        <v>39427</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03699459308479774</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02544446605717671</v>
+        <v>0.02478270456858172</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0530225778332134</v>
+        <v>0.0540702182997839</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>350332</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343790</v>
+        <v>343729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354098</v>
+        <v>354149</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9793288881168408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9610387930303875</v>
+        <v>0.9608705112340722</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9898562257338968</v>
+        <v>0.9899989193295332</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>364</v>
@@ -1487,19 +1487,19 @@
         <v>351875</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342998</v>
+        <v>341662</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>359351</v>
+        <v>358764</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9472852543130511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9233874396847375</v>
+        <v>0.9197921801694203</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9674125564903061</v>
+        <v>0.9658326780715645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>717</v>
@@ -1508,19 +1508,19 @@
         <v>702207</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>690520</v>
+        <v>689756</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>710629</v>
+        <v>711112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9630054069152023</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9469774221667866</v>
+        <v>0.945929781700216</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9745555339428232</v>
+        <v>0.9752172954314182</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>13053</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7330</v>
+        <v>6985</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21061</v>
+        <v>20936</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06420321090634978</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03605576320372416</v>
+        <v>0.03435759929272787</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1035926028616913</v>
+        <v>0.1029760053580778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1633,19 +1633,19 @@
         <v>18842</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11766</v>
+        <v>11999</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29000</v>
+        <v>28251</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09073001757730431</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05665847663073015</v>
+        <v>0.05778089315623861</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.139644105025222</v>
+        <v>0.1360395757147712</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1654,19 +1654,19 @@
         <v>31895</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22450</v>
+        <v>21878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43711</v>
+        <v>43053</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07760732275517783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05462597618137851</v>
+        <v>0.05323419855098643</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1063588281801391</v>
+        <v>0.1047589989132611</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>190255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182247</v>
+        <v>182372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195978</v>
+        <v>196323</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9357967890936502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8964073971383087</v>
+        <v>0.8970239946419223</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9639442367962759</v>
+        <v>0.9656424007072721</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>181</v>
@@ -1704,19 +1704,19 @@
         <v>188826</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>178668</v>
+        <v>179417</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195902</v>
+        <v>195669</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9092699824226956</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.860355894974778</v>
+        <v>0.8639604242852288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9433415233692699</v>
+        <v>0.9422191068437614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>373</v>
@@ -1725,19 +1725,19 @@
         <v>379081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>367265</v>
+        <v>367923</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>388526</v>
+        <v>389098</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9223926772448222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8936411718198612</v>
+        <v>0.8952410010867387</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9453740238186216</v>
+        <v>0.9467658014490135</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>10466</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5665</v>
+        <v>5529</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18631</v>
+        <v>17389</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03864684989931198</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02091995530381579</v>
+        <v>0.0204153914251854</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06879580098446549</v>
+        <v>0.0642104668536506</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -1850,19 +1850,19 @@
         <v>30572</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21434</v>
+        <v>21089</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41795</v>
+        <v>42464</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1099151106714457</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07705925095304471</v>
+        <v>0.07582079172841127</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1502653844305749</v>
+        <v>0.1526686538860986</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -1871,19 +1871,19 @@
         <v>41038</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29283</v>
+        <v>30033</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54529</v>
+        <v>54627</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07475698457310724</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05334390306592737</v>
+        <v>0.05470863961030375</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09933314995411181</v>
+        <v>0.09951007217374612</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>260345</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252180</v>
+        <v>253422</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265146</v>
+        <v>265282</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.961353150100688</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9312041990155348</v>
+        <v>0.9357895331463495</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9790800446961843</v>
+        <v>0.9795846085748147</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>241</v>
@@ -1921,19 +1921,19 @@
         <v>247572</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>236349</v>
+        <v>235680</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256710</v>
+        <v>257055</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8900848893285542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8497346155694251</v>
+        <v>0.8473313461139012</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9229407490469553</v>
+        <v>0.9241792082715885</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>496</v>
@@ -1942,19 +1942,19 @@
         <v>507917</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>494426</v>
+        <v>494328</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>519672</v>
+        <v>518922</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9252430154268928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9006668500458883</v>
+        <v>0.900489927826254</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9466560969340727</v>
+        <v>0.9452913603896964</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>35533</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25699</v>
+        <v>24069</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>49200</v>
+        <v>47477</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05777421588285241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04178452164273743</v>
+        <v>0.03913442294292847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07999586556079463</v>
+        <v>0.07719505893933636</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -2067,19 +2067,19 @@
         <v>53668</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41278</v>
+        <v>41370</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69521</v>
+        <v>69221</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08409021253856278</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06467676775179869</v>
+        <v>0.06482162780415245</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1089301792184305</v>
+        <v>0.1084597784202828</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>88</v>
@@ -2088,19 +2088,19 @@
         <v>89201</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72341</v>
+        <v>73383</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>110133</v>
+        <v>110929</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07117571049176978</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05772322718867652</v>
+        <v>0.05855444054724434</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0878784927747225</v>
+        <v>0.08851310947515732</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>579494</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>565827</v>
+        <v>567550</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>589328</v>
+        <v>590958</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9422257841171476</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9200041344392054</v>
+        <v>0.9228049410606636</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9582154783572625</v>
+        <v>0.9608655770570715</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>568</v>
@@ -2138,19 +2138,19 @@
         <v>584551</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>568698</v>
+        <v>568998</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>596941</v>
+        <v>596849</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9159097874614373</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8910698207815695</v>
+        <v>0.8915402215797174</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9353232322482014</v>
+        <v>0.9351783721958477</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1131</v>
@@ -2159,19 +2159,19 @@
         <v>1164045</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1143113</v>
+        <v>1142317</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1180905</v>
+        <v>1179863</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9288242895082303</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9121215072252777</v>
+        <v>0.9114868905248438</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9422767728113236</v>
+        <v>0.9414455594527559</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>25711</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17178</v>
+        <v>17170</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36958</v>
+        <v>36465</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03456718981327577</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02309532123347657</v>
+        <v>0.02308482021096676</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0496880662556057</v>
+        <v>0.04902545346856634</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2284,19 +2284,19 @@
         <v>50494</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37687</v>
+        <v>36717</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65476</v>
+        <v>66589</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06444613796254886</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0480999153190359</v>
+        <v>0.04686156633517746</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08356781066052764</v>
+        <v>0.08498755526443398</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>74</v>
@@ -2305,19 +2305,19 @@
         <v>76205</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61195</v>
+        <v>59851</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96041</v>
+        <v>94918</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04989514891367407</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04006751512505795</v>
+        <v>0.03918704459980005</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06288263477367256</v>
+        <v>0.06214724195831858</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>718084</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>706837</v>
+        <v>707330</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>726617</v>
+        <v>726625</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9654328101867242</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9503119337443943</v>
+        <v>0.9509745465314337</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9769046787665234</v>
+        <v>0.9769151797890333</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>698</v>
@@ -2355,19 +2355,19 @@
         <v>733017</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>718035</v>
+        <v>716922</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>745824</v>
+        <v>746794</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9355538620374512</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9164321893394723</v>
+        <v>0.9150124447355661</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9519000846809643</v>
+        <v>0.9531384336648228</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1407</v>
@@ -2376,19 +2376,19 @@
         <v>1451101</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1431265</v>
+        <v>1432388</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1466111</v>
+        <v>1467455</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9501048510863259</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9371173652263274</v>
+        <v>0.9378527580416814</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.959932484874942</v>
+        <v>0.9608129554002</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>135426</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>114051</v>
+        <v>115219</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>160502</v>
+        <v>160072</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04134393321758539</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03481822323734288</v>
+        <v>0.03517505133738276</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04899940523340228</v>
+        <v>0.0488679303111352</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>242</v>
@@ -2501,19 +2501,19 @@
         <v>249341</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>221009</v>
+        <v>220809</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>282173</v>
+        <v>281009</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07378697910889559</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06540273755975194</v>
+        <v>0.06534352694564585</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08350308527758768</v>
+        <v>0.08315847145516574</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>378</v>
@@ -2522,19 +2522,19 @@
         <v>384767</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>350289</v>
+        <v>350217</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>426454</v>
+        <v>429275</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05781798447047931</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05263701843802458</v>
+        <v>0.05262628201072669</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06408227228174285</v>
+        <v>0.06450618366786663</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3140173</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3115097</v>
+        <v>3115527</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3161548</v>
+        <v>3160380</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9586560667824147</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9510005947665978</v>
+        <v>0.9511320696888642</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9651817767626572</v>
+        <v>0.9648249486626171</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3055</v>
@@ -2572,19 +2572,19 @@
         <v>3129856</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3097024</v>
+        <v>3098188</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3158188</v>
+        <v>3158388</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9262130208911044</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9164969147224125</v>
+        <v>0.916841528544834</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9345972624402481</v>
+        <v>0.9346564730543541</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6132</v>
@@ -2593,19 +2593,19 @@
         <v>6270029</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6228342</v>
+        <v>6225521</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6304507</v>
+        <v>6304579</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9421820155295207</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9359177277182572</v>
+        <v>0.9354938163321341</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9473629815619754</v>
+        <v>0.9473737179892735</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>25654</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17426</v>
+        <v>16869</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37344</v>
+        <v>36790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08704012478321638</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05912342928986258</v>
+        <v>0.05723542925963814</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1267037477879091</v>
+        <v>0.124822875894359</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2962,19 +2962,19 @@
         <v>36932</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25807</v>
+        <v>25646</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50023</v>
+        <v>48966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1285744806798453</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08984285129226775</v>
+        <v>0.08928335558806101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1741460812161802</v>
+        <v>0.1704682827580341</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -2983,19 +2983,19 @@
         <v>62586</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48067</v>
+        <v>46611</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78933</v>
+        <v>78684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1075399253528991</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08259186447864519</v>
+        <v>0.08008954336925211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1356284018445501</v>
+        <v>0.1351999298917367</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>269084</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257394</v>
+        <v>257948</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277312</v>
+        <v>277869</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9129598752167837</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.873296252212091</v>
+        <v>0.875177124105641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9408765707101374</v>
+        <v>0.9427645707403618</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>222</v>
@@ -3033,19 +3033,19 @@
         <v>250313</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237222</v>
+        <v>238279</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261438</v>
+        <v>261599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8714255193201547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8258539187838196</v>
+        <v>0.8295317172419659</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9101571487077321</v>
+        <v>0.9107166444119387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>480</v>
@@ -3054,19 +3054,19 @@
         <v>519397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>503050</v>
+        <v>503299</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>533916</v>
+        <v>535372</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.892460074647101</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8643715981554498</v>
+        <v>0.8648000701082628</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9174081355213547</v>
+        <v>0.9199104566307478</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>42216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30066</v>
+        <v>29132</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56836</v>
+        <v>57772</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08384757565493386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05971617985806486</v>
+        <v>0.05786068632575991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.112885834787519</v>
+        <v>0.1147459505766101</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -3179,19 +3179,19 @@
         <v>59559</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46699</v>
+        <v>44835</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77144</v>
+        <v>74847</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1137137135471634</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08915957010087157</v>
+        <v>0.08560055617668944</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.147286518928784</v>
+        <v>0.1429019464278927</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -3200,19 +3200,19 @@
         <v>101775</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82203</v>
+        <v>83104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>123328</v>
+        <v>124155</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09907553183320394</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08002243279569574</v>
+        <v>0.08090031560111721</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1200569933182394</v>
+        <v>0.1208622361777428</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>461264</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>446644</v>
+        <v>445708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473414</v>
+        <v>474348</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9161524243450662</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.887114165212481</v>
+        <v>0.88525404942339</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9402838201419352</v>
+        <v>0.9421393136742402</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>424</v>
@@ -3250,19 +3250,19 @@
         <v>464206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>446621</v>
+        <v>448918</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>477066</v>
+        <v>478930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8862862864528366</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8527134810712161</v>
+        <v>0.8570980535721073</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9108404298991288</v>
+        <v>0.9143994438233106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>858</v>
@@ -3271,19 +3271,19 @@
         <v>925470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>903917</v>
+        <v>903090</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>945042</v>
+        <v>944141</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9009244681667961</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8799430066817598</v>
+        <v>0.8791377638222572</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9199775672043041</v>
+        <v>0.9190996843988827</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>24444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15430</v>
+        <v>16318</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35732</v>
+        <v>35698</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07543462405901864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04761522575970894</v>
+        <v>0.05035680245465069</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1102689272553782</v>
+        <v>0.1101641476021675</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -3396,19 +3396,19 @@
         <v>35774</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25617</v>
+        <v>24460</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49558</v>
+        <v>47413</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1049017066155907</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07511749320791936</v>
+        <v>0.07172657902733402</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1453223530424236</v>
+        <v>0.1390325971886501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -3417,19 +3417,19 @@
         <v>60218</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47075</v>
+        <v>46836</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>76091</v>
+        <v>77462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09054419904682054</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07078242055161582</v>
+        <v>0.07042266349960126</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1144108178391714</v>
+        <v>0.1164725968779225</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>299602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>288314</v>
+        <v>288348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308616</v>
+        <v>307728</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9245653759409813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8897310727446219</v>
+        <v>0.8898358523978325</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9523847742402914</v>
+        <v>0.949643197545349</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>284</v>
@@ -3467,19 +3467,19 @@
         <v>305246</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>291462</v>
+        <v>293607</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>315403</v>
+        <v>316560</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8950982933844094</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.854677646957576</v>
+        <v>0.8609674028113499</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9248825067920806</v>
+        <v>0.928273420972666</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>580</v>
@@ -3488,19 +3488,19 @@
         <v>604848</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>588975</v>
+        <v>587604</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>617991</v>
+        <v>618230</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9094558009531795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8855891821608285</v>
+        <v>0.8835274031220774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9292175794483841</v>
+        <v>0.9295773365003986</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>20152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12484</v>
+        <v>12331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29763</v>
+        <v>30480</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0538840678569494</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03338064323574778</v>
+        <v>0.03297185994809695</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07958319441869324</v>
+        <v>0.08150206320274121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -3613,19 +3613,19 @@
         <v>38381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28143</v>
+        <v>26903</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54061</v>
+        <v>51991</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09867832136928206</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07235551332837836</v>
+        <v>0.06916846748566256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1389926252644795</v>
+        <v>0.1336696342537143</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -3634,19 +3634,19 @@
         <v>58533</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44096</v>
+        <v>44137</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74430</v>
+        <v>74130</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07672063015410535</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05779832696840718</v>
+        <v>0.05785149190770144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09755768368758119</v>
+        <v>0.09716421942948145</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>353830</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344219</v>
+        <v>343502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>361498</v>
+        <v>361651</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9461159321430506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9204168055813068</v>
+        <v>0.9184979367972588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9666193567642523</v>
+        <v>0.9670281400519031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>335</v>
@@ -3684,19 +3684,19 @@
         <v>350570</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>334890</v>
+        <v>336960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>360808</v>
+        <v>362048</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9013216786307179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8610073747355205</v>
+        <v>0.8663303657462856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9276444866716216</v>
+        <v>0.9308315325143375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>659</v>
@@ -3705,19 +3705,19 @@
         <v>704400</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>688503</v>
+        <v>688803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>718837</v>
+        <v>718796</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9232793698458946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9024423163124188</v>
+        <v>0.9028357805705186</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9422016730315927</v>
+        <v>0.9421485080922987</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>13216</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7263</v>
+        <v>7181</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21469</v>
+        <v>22852</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06215942853866644</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03416100894723369</v>
+        <v>0.03377255481264201</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1009752894533362</v>
+        <v>0.1074805077865229</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -3830,19 +3830,19 @@
         <v>21390</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13503</v>
+        <v>13774</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31128</v>
+        <v>31959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09740886378854989</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06149270772761487</v>
+        <v>0.06272564909291066</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1417551872793381</v>
+        <v>0.1455371384575318</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -3851,19 +3851,19 @@
         <v>34606</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25162</v>
+        <v>24707</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48465</v>
+        <v>46844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08006849112402144</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05821761087904535</v>
+        <v>0.05716523461680521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1121334523609189</v>
+        <v>0.1083837292101932</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>199402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191149</v>
+        <v>189766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205355</v>
+        <v>205437</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9378405714613336</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8990247105466639</v>
+        <v>0.8925194922134776</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9658389910527664</v>
+        <v>0.966227445187358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -3901,19 +3901,19 @@
         <v>198201</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188463</v>
+        <v>187632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206088</v>
+        <v>205817</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9025911362114502</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.858244812720662</v>
+        <v>0.8544628615424683</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9385072922723852</v>
+        <v>0.9372743509070895</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>374</v>
@@ -3922,19 +3922,19 @@
         <v>397603</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>383744</v>
+        <v>385365</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>407047</v>
+        <v>407502</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9199315088759785</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.887866547639081</v>
+        <v>0.8916162707898069</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9417823891209546</v>
+        <v>0.9428347653831949</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>15385</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8391</v>
+        <v>9161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25384</v>
+        <v>25397</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0561539379211323</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03062789810981061</v>
+        <v>0.03343555896887104</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09264795828085345</v>
+        <v>0.09269479776690427</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -4047,19 +4047,19 @@
         <v>26756</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18026</v>
+        <v>18219</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37921</v>
+        <v>38224</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09554619416195506</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06437071223094701</v>
+        <v>0.06506234100575974</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1354187956718526</v>
+        <v>0.1365005919660776</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -4068,19 +4068,19 @@
         <v>42141</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30735</v>
+        <v>29999</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56900</v>
+        <v>55298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07606515428293902</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05547676433723301</v>
+        <v>0.05414803305640097</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1027049516764335</v>
+        <v>0.09981420050703452</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>258596</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248597</v>
+        <v>248584</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265590</v>
+        <v>264820</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9438460620788677</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9073520417191466</v>
+        <v>0.9073052022330959</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9693721018901894</v>
+        <v>0.966564441031129</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>244</v>
@@ -4118,19 +4118,19 @@
         <v>253275</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242110</v>
+        <v>241807</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262005</v>
+        <v>261812</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9044538058380449</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8645812043281473</v>
+        <v>0.8634994080339226</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.935629287769053</v>
+        <v>0.9349376589942403</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>491</v>
@@ -4139,19 +4139,19 @@
         <v>511871</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>497112</v>
+        <v>498714</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>523277</v>
+        <v>524013</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.923934845717061</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8972950483235662</v>
+        <v>0.9001857994929654</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9445232356627669</v>
+        <v>0.9458519669435986</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>30749</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20574</v>
+        <v>20760</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46434</v>
+        <v>45870</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04639342119475794</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03104133145777617</v>
+        <v>0.03132183222185352</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07005806640840107</v>
+        <v>0.06920789778465787</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -4264,19 +4264,19 @@
         <v>58672</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44781</v>
+        <v>43489</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>75469</v>
+        <v>74191</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08455938319401181</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06453890168601634</v>
+        <v>0.06267707273855015</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1087676506913252</v>
+        <v>0.1069267084929793</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>82</v>
@@ -4285,19 +4285,19 @@
         <v>89421</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>71459</v>
+        <v>71901</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109142</v>
+        <v>110282</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06591337224961567</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05267342743525891</v>
+        <v>0.05299943998875861</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08045008447289338</v>
+        <v>0.08129058016486911</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>632039</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>616354</v>
+        <v>616918</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>642214</v>
+        <v>642028</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.953606578805242</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9299419335915989</v>
+        <v>0.9307921022153424</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.968958668542224</v>
+        <v>0.9686781677781466</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>582</v>
@@ -4335,19 +4335,19 @@
         <v>635181</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>618384</v>
+        <v>619662</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>649072</v>
+        <v>650364</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9154406168059882</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8912323493086748</v>
+        <v>0.8930732915070208</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9354610983139834</v>
+        <v>0.9373229272614498</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1172</v>
@@ -4356,19 +4356,19 @@
         <v>1267220</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1247499</v>
+        <v>1246359</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1285182</v>
+        <v>1284740</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9340866277503843</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9195499155271066</v>
+        <v>0.9187094198351309</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9473265725647411</v>
+        <v>0.9470005600112414</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>37098</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25911</v>
+        <v>27117</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50257</v>
+        <v>51185</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04761723453018403</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03325776766528109</v>
+        <v>0.03480583914862332</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06450668419634524</v>
+        <v>0.06569773841788344</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -4481,19 +4481,19 @@
         <v>60769</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45081</v>
+        <v>46416</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>76732</v>
+        <v>79068</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07376134954877363</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0547192291308771</v>
+        <v>0.05634039827263035</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0931378498256822</v>
+        <v>0.09597402382931244</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -4502,19 +4502,19 @@
         <v>97867</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>78367</v>
+        <v>79828</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>116837</v>
+        <v>119803</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06105426659552825</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04888903506491991</v>
+        <v>0.04980076855532473</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07288857903147107</v>
+        <v>0.07473907964642261</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>742000</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>728841</v>
+        <v>727913</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>753187</v>
+        <v>751981</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9523827654698159</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9354933158036548</v>
+        <v>0.9343022615821167</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9667422323347189</v>
+        <v>0.9651941608513768</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>702</v>
@@ -4552,19 +4552,19 @@
         <v>763084</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>747121</v>
+        <v>744785</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>778772</v>
+        <v>777437</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9262386504512263</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9068621501743189</v>
+        <v>0.9040259761706875</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9452807708691231</v>
+        <v>0.9436596017273695</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1385</v>
@@ -4573,19 +4573,19 @@
         <v>1505084</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1486114</v>
+        <v>1483148</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1524584</v>
+        <v>1523123</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9389457334044717</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9271114209685292</v>
+        <v>0.9252609203535774</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9511109649350806</v>
+        <v>0.9501992314446751</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>208914</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>183481</v>
+        <v>181360</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>240244</v>
+        <v>238751</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06100169011830042</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05357530969927975</v>
+        <v>0.0529560943412473</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0701497590130598</v>
+        <v>0.069713731599287</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>314</v>
@@ -4698,19 +4698,19 @@
         <v>338233</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>307157</v>
+        <v>301838</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>379707</v>
+        <v>372436</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09505429372239403</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08632097760346072</v>
+        <v>0.08482629104669537</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1067100339602286</v>
+        <v>0.1046664699082766</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>507</v>
@@ -4719,19 +4719,19 @@
         <v>547147</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>505043</v>
+        <v>503305</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>593874</v>
+        <v>594604</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07835368602888944</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0723242506507467</v>
+        <v>0.07207535037721033</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08504521843741056</v>
+        <v>0.08514976010835695</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3215817</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3184487</v>
+        <v>3185980</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3241250</v>
+        <v>3243371</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9389983098816996</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9298502409869402</v>
+        <v>0.9302862684007126</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9464246903007203</v>
+        <v>0.9470439056587525</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2984</v>
@@ -4769,19 +4769,19 @@
         <v>3220076</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3178602</v>
+        <v>3185873</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3251152</v>
+        <v>3256471</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.904945706277606</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8932899660397715</v>
+        <v>0.8953335300917235</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9136790223965395</v>
+        <v>0.9151737089533047</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5999</v>
@@ -4790,19 +4790,19 @@
         <v>6435893</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6389166</v>
+        <v>6388436</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6477997</v>
+        <v>6479735</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9216463139711105</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9149547815625894</v>
+        <v>0.914850239891643</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9276757493492532</v>
+        <v>0.9279246496227895</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>15641</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9420</v>
+        <v>9585</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24573</v>
+        <v>25635</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0532454575379682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0320675846981394</v>
+        <v>0.03262971930759802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08365028363852978</v>
+        <v>0.08726538114219236</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -5159,19 +5159,19 @@
         <v>33613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23992</v>
+        <v>24020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44608</v>
+        <v>46761</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1164266523587146</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08310218312563535</v>
+        <v>0.08320086253236643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1545118221820134</v>
+        <v>0.1619684503368063</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -5180,19 +5180,19 @@
         <v>49254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36361</v>
+        <v>37011</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>62856</v>
+        <v>62478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0845617285139455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06242532455496528</v>
+        <v>0.06354161994092133</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1079143840195478</v>
+        <v>0.1072655597158509</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>278120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269188</v>
+        <v>268126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>284341</v>
+        <v>284176</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9467545424620318</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9163497163614702</v>
+        <v>0.9127346188578076</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9679324153018607</v>
+        <v>0.9673702806924019</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -5230,19 +5230,19 @@
         <v>255090</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>244095</v>
+        <v>241942</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>264711</v>
+        <v>264683</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8835733476412855</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8454881778179865</v>
+        <v>0.8380315496631939</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9168978168743646</v>
+        <v>0.9167991374676339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>495</v>
@@ -5251,19 +5251,19 @@
         <v>533210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>519608</v>
+        <v>519986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>546103</v>
+        <v>545453</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9154382714860545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8920856159804521</v>
+        <v>0.8927344402841491</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9375746754450347</v>
+        <v>0.9364583800590787</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>20991</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13567</v>
+        <v>13448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32490</v>
+        <v>32747</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04176753810865131</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02699470596096802</v>
+        <v>0.02675914163714757</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06464723151716822</v>
+        <v>0.06515882240532458</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -5376,19 +5376,19 @@
         <v>36067</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25232</v>
+        <v>24970</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49464</v>
+        <v>49947</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06895155197112419</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0482370402519319</v>
+        <v>0.04773555473851587</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09456170863523826</v>
+        <v>0.09548484908529838</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -5397,19 +5397,19 @@
         <v>57059</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42270</v>
+        <v>43123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72631</v>
+        <v>74790</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05563132489833704</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0412125306555178</v>
+        <v>0.04204418185803351</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07081373653558314</v>
+        <v>0.07291857805871083</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>481584</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470085</v>
+        <v>469828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489008</v>
+        <v>489127</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9582324618913487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9353527684828316</v>
+        <v>0.9348411775946753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9730052940390319</v>
+        <v>0.9732408583628523</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>451</v>
@@ -5447,19 +5447,19 @@
         <v>487017</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473620</v>
+        <v>473137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497852</v>
+        <v>498114</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9310484480288758</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9054382913647617</v>
+        <v>0.9045151509147014</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9517629597480681</v>
+        <v>0.9522644452614841</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>906</v>
@@ -5468,19 +5468,19 @@
         <v>968600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>953028</v>
+        <v>950869</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>983389</v>
+        <v>982536</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.944368675101663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9291862634644167</v>
+        <v>0.9270814219412891</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.958787469344482</v>
+        <v>0.9579558181419664</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>9067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4542</v>
+        <v>4443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15318</v>
+        <v>15775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02846307029852034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01425891837204791</v>
+        <v>0.01394729236328512</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04808401112213173</v>
+        <v>0.04951916616683432</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -5593,19 +5593,19 @@
         <v>33377</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23771</v>
+        <v>23954</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45616</v>
+        <v>44782</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09924457449595797</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07068055034825195</v>
+        <v>0.0712264551539398</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1356368197903605</v>
+        <v>0.1331577307059669</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -5614,19 +5614,19 @@
         <v>42444</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32244</v>
+        <v>31454</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56014</v>
+        <v>55507</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06481274527571969</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04923701895520997</v>
+        <v>0.04803118286912112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08553385160918191</v>
+        <v>0.0847591384512464</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>309498</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>303247</v>
+        <v>302790</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314023</v>
+        <v>314122</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9715369297014796</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9519159888778683</v>
+        <v>0.9504808338331657</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.985741081627952</v>
+        <v>0.9860527076367149</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>299</v>
@@ -5664,19 +5664,19 @@
         <v>302932</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>290693</v>
+        <v>291527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>312538</v>
+        <v>312355</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.900755425504042</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.864363180209638</v>
+        <v>0.8668422692940333</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9293194496517477</v>
+        <v>0.9287735448460603</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>624</v>
@@ -5685,19 +5685,19 @@
         <v>612430</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>598860</v>
+        <v>599367</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>622630</v>
+        <v>623420</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9351872547242803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9144661483908181</v>
+        <v>0.9152408615487537</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9507629810447901</v>
+        <v>0.9519688171308789</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>28057</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18241</v>
+        <v>18583</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40914</v>
+        <v>39068</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07583686598581954</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04930387910068106</v>
+        <v>0.05022931761236982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1105903184016693</v>
+        <v>0.1055989067911646</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -5810,19 +5810,19 @@
         <v>31890</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21611</v>
+        <v>21847</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44975</v>
+        <v>44680</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0823429469575627</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05580086100285881</v>
+        <v>0.05641207497969129</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1161290372398236</v>
+        <v>0.1153671342344841</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -5831,19 +5831,19 @@
         <v>59947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46161</v>
+        <v>45570</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78859</v>
+        <v>76332</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07916430678879158</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06095918780870887</v>
+        <v>0.0601780582828554</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1041387084933157</v>
+        <v>0.1008026368638586</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>341907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>329050</v>
+        <v>330896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>351723</v>
+        <v>351381</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9241631340141805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8894096815983307</v>
+        <v>0.8944010932088353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9506961208993189</v>
+        <v>0.9497706823876302</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>331</v>
@@ -5881,19 +5881,19 @@
         <v>355393</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342308</v>
+        <v>342603</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>365672</v>
+        <v>365436</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9176570530424373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8838709627601764</v>
+        <v>0.8846328657655156</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9441991389971414</v>
+        <v>0.9435879250203077</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>658</v>
@@ -5902,19 +5902,19 @@
         <v>697300</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>678388</v>
+        <v>680915</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>711086</v>
+        <v>711677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9208356932112084</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8958612915066843</v>
+        <v>0.8991973631361414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9390408121912911</v>
+        <v>0.9398219417171446</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>8667</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3878</v>
+        <v>3851</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16137</v>
+        <v>15412</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04103125925823659</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01835949866229208</v>
+        <v>0.01823021375283109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07639785122860397</v>
+        <v>0.07296829863574791</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -6027,19 +6027,19 @@
         <v>11241</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5274</v>
+        <v>5722</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20250</v>
+        <v>20178</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05142755504941651</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02412821548081994</v>
+        <v>0.02617729394602085</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09263824197555641</v>
+        <v>0.09230896016121111</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -6048,19 +6048,19 @@
         <v>19908</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12188</v>
+        <v>13133</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30127</v>
+        <v>31027</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04631849243517351</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02835625884266722</v>
+        <v>0.03055434791506719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0700935757208534</v>
+        <v>0.07218833291521674</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>202554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195084</v>
+        <v>195809</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207343</v>
+        <v>207370</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9589687407417634</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9236021487713962</v>
+        <v>0.9270317013642523</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9816405013377079</v>
+        <v>0.9817697862471689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -6098,19 +6098,19 @@
         <v>207346</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198337</v>
+        <v>198409</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213313</v>
+        <v>212865</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9485724449505835</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9073617580244443</v>
+        <v>0.9076910398387891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9758717845191802</v>
+        <v>0.9738227060539792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>416</v>
@@ -6119,19 +6119,19 @@
         <v>409900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>399681</v>
+        <v>398781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>417620</v>
+        <v>416675</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9536815075648265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9299064242791465</v>
+        <v>0.9278116670847826</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9716437411573328</v>
+        <v>0.9694456520849328</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>19186</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12209</v>
+        <v>11587</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29591</v>
+        <v>29167</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07291567100800418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0463998336892389</v>
+        <v>0.04403641710719337</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1124625055573307</v>
+        <v>0.1108485890030534</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -6244,19 +6244,19 @@
         <v>28422</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19552</v>
+        <v>19021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40598</v>
+        <v>39455</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1040642289213968</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07158730596931301</v>
+        <v>0.06964444878908595</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1486483972180873</v>
+        <v>0.1444634962611758</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -6265,19 +6265,19 @@
         <v>47607</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35637</v>
+        <v>36378</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63549</v>
+        <v>62953</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08878015359626809</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06645655048110333</v>
+        <v>0.06783844879527999</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1185091166858858</v>
+        <v>0.1173978241190037</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>243937</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233532</v>
+        <v>233956</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250914</v>
+        <v>251536</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9270843289919958</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8875374944426693</v>
+        <v>0.8891514109969465</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9536001663107611</v>
+        <v>0.9559635828928065</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>237</v>
@@ -6315,19 +6315,19 @@
         <v>244693</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>232517</v>
+        <v>233660</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>253563</v>
+        <v>254094</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8959357710786031</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8513516027819127</v>
+        <v>0.8555365037388242</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9284126940306869</v>
+        <v>0.930355551210914</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>477</v>
@@ -6336,19 +6336,19 @@
         <v>488631</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>472689</v>
+        <v>473285</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>500601</v>
+        <v>499860</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9112198464037319</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8814908833141143</v>
+        <v>0.8826021758809962</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9335434495188968</v>
+        <v>0.93216155120472</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>26160</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16471</v>
+        <v>17172</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38857</v>
+        <v>39587</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03984462108238053</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02508624181474083</v>
+        <v>0.02615437596582773</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05918334107840632</v>
+        <v>0.06029512881536363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -6461,19 +6461,19 @@
         <v>49196</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37294</v>
+        <v>36223</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66793</v>
+        <v>65324</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07116470721233997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05394834703862426</v>
+        <v>0.05239833232553284</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09662017085290737</v>
+        <v>0.09449497486456937</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -6482,19 +6482,19 @@
         <v>75356</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>58118</v>
+        <v>59194</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>94718</v>
+        <v>95681</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05590824503763632</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04311927737039152</v>
+        <v>0.04391714330715422</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07027365538945177</v>
+        <v>0.07098803680482213</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>630398</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>617701</v>
+        <v>616971</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>640087</v>
+        <v>639386</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9601553789176195</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9408166589215932</v>
+        <v>0.9397048711846362</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9749137581852588</v>
+        <v>0.9738456240341721</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>602</v>
@@ -6532,19 +6532,19 @@
         <v>642098</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>624501</v>
+        <v>625970</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>654000</v>
+        <v>655071</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9288352927876601</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9033798291470927</v>
+        <v>0.9055050251354306</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9460516529613759</v>
+        <v>0.947601667674467</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1161</v>
@@ -6553,19 +6553,19 @@
         <v>1272496</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1253134</v>
+        <v>1252171</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1289734</v>
+        <v>1288658</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9440917549623636</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9297263446105484</v>
+        <v>0.929011963195178</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9568807226296087</v>
+        <v>0.9560828566928458</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>35711</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24837</v>
+        <v>25596</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48795</v>
+        <v>49289</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04586665909858102</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0319003164357868</v>
+        <v>0.03287571410358345</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0626719739510318</v>
+        <v>0.06330573711563635</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -6678,19 +6678,19 @@
         <v>49533</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35979</v>
+        <v>36699</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65241</v>
+        <v>65015</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05995568232440122</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04354914709356184</v>
+        <v>0.04442106694471362</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07896841587778783</v>
+        <v>0.07869470440757688</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>79</v>
@@ -6699,19 +6699,19 @@
         <v>85244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68524</v>
+        <v>67121</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>106239</v>
+        <v>107193</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05312005438650141</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04270094915877616</v>
+        <v>0.04182615936092393</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06620313810924452</v>
+        <v>0.06679720001859893</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>742872</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>729788</v>
+        <v>729294</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>753746</v>
+        <v>752987</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.954133340901419</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9373280260489681</v>
+        <v>0.9366942628843644</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9680996835642132</v>
+        <v>0.9671242858964166</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>710</v>
@@ -6749,19 +6749,19 @@
         <v>776634</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>760926</v>
+        <v>761152</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>790188</v>
+        <v>789468</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9400443176755988</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9210315841222122</v>
+        <v>0.921305295592423</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9564508529064382</v>
+        <v>0.9555789330552864</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1426</v>
@@ -6770,19 +6770,19 @@
         <v>1519506</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1498511</v>
+        <v>1497557</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1536226</v>
+        <v>1537629</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9468799456134985</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9337968618907558</v>
+        <v>0.9332027999814021</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9572990508412239</v>
+        <v>0.9581738406390762</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>163481</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>137713</v>
+        <v>140291</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>188678</v>
+        <v>191393</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04816261280850116</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04057136070786677</v>
+        <v>0.0413306795886315</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0555857968233314</v>
+        <v>0.05638573633172054</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>251</v>
@@ -6895,19 +6895,19 @@
         <v>273339</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>241497</v>
+        <v>242364</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>307703</v>
+        <v>308472</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07711548702102915</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06813196674766327</v>
+        <v>0.0683766491139508</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08681047390311687</v>
+        <v>0.08702733628467199</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>406</v>
@@ -6916,19 +6916,19 @@
         <v>436820</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>395527</v>
+        <v>395437</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>479150</v>
+        <v>481920</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0629523910004411</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05700147599301867</v>
+        <v>0.0569885590382995</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06905282531260525</v>
+        <v>0.0694520166173045</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3230869</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3205672</v>
+        <v>3202957</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3256637</v>
+        <v>3254059</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9518373871914988</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9444142031766686</v>
+        <v>0.9436142636682793</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9594286392921332</v>
+        <v>0.9586693204113685</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3087</v>
@@ -6966,19 +6966,19 @@
         <v>3271203</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3236839</v>
+        <v>3236070</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3303045</v>
+        <v>3302178</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9228845129789709</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9131895260968831</v>
+        <v>0.9129726637153279</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9318680332523367</v>
+        <v>0.9316233508860492</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6163</v>
@@ -6987,19 +6987,19 @@
         <v>6502072</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6459742</v>
+        <v>6456972</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6543365</v>
+        <v>6543455</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9370476089995589</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9309471746873944</v>
+        <v>0.9305479833826955</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.942998524006981</v>
+        <v>0.9430114409617005</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>11673</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6614</v>
+        <v>6914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18669</v>
+        <v>18795</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03661006773758881</v>
+        <v>0.03661006773758882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02074421559462753</v>
+        <v>0.02168313787163313</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05855303115675465</v>
+        <v>0.05894770343265594</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -7356,19 +7356,19 @@
         <v>22209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15654</v>
+        <v>15651</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30000</v>
+        <v>29645</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07026783259020938</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04952774361133626</v>
+        <v>0.04951775381666206</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0949177363774243</v>
+        <v>0.09379496010607084</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -7377,19 +7377,19 @@
         <v>33882</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25555</v>
+        <v>25625</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44376</v>
+        <v>43852</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05336514025642765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04025012306277648</v>
+        <v>0.04035971169923051</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06989335347910443</v>
+        <v>0.0690680333520423</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>307172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>300176</v>
+        <v>300050</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>312231</v>
+        <v>311931</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9633899322624111</v>
+        <v>0.9633899322624112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9414469688432452</v>
+        <v>0.941052296567344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9792557844053723</v>
+        <v>0.9783168621283665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>501</v>
@@ -7427,19 +7427,19 @@
         <v>293852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>286061</v>
+        <v>286416</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300407</v>
+        <v>300410</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9297321674097906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9050822636225757</v>
+        <v>0.9062050398939292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9504722563886639</v>
+        <v>0.9504822461833378</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>818</v>
@@ -7448,19 +7448,19 @@
         <v>601024</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>590530</v>
+        <v>591054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>609351</v>
+        <v>609281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9466348597435724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9301066465208955</v>
+        <v>0.9309319666479577</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9597498769372236</v>
+        <v>0.9596402883007694</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>40940</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28988</v>
+        <v>27834</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55531</v>
+        <v>55835</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07715016658344212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05462855280202886</v>
+        <v>0.05245326149699812</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1046481803335965</v>
+        <v>0.1052198825315644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -7573,19 +7573,19 @@
         <v>24396</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17027</v>
+        <v>16910</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36215</v>
+        <v>36080</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0446401129685246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03115635879051983</v>
+        <v>0.03094327890950323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06626771974004746</v>
+        <v>0.06602164742275188</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -7594,19 +7594,19 @@
         <v>65335</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51413</v>
+        <v>49421</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83898</v>
+        <v>85081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06065598923453949</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04773068868848156</v>
+        <v>0.04588134690331874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0778896599007655</v>
+        <v>0.0789874674688778</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>489707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>475116</v>
+        <v>474812</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501659</v>
+        <v>502813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9228498334165578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8953518196664035</v>
+        <v>0.8947801174684356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9453714471979713</v>
+        <v>0.9475467385030018</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>687</v>
@@ -7644,19 +7644,19 @@
         <v>522098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>510279</v>
+        <v>510414</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>529467</v>
+        <v>529584</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9553598870314753</v>
+        <v>0.9553598870314755</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9337322802599525</v>
+        <v>0.933978352577249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9688436412094803</v>
+        <v>0.9690567210904969</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1034</v>
@@ -7665,19 +7665,19 @@
         <v>1011806</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>993243</v>
+        <v>992060</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1025728</v>
+        <v>1027720</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9393440107654605</v>
+        <v>0.9393440107654607</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9221103400992346</v>
+        <v>0.9210125325311224</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9522693113115186</v>
+        <v>0.9541186530966813</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>26594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18772</v>
+        <v>19526</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37734</v>
+        <v>36671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08416005834922616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05940496302137929</v>
+        <v>0.06179136975307124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1194132596468841</v>
+        <v>0.1160488121317608</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -7790,19 +7790,19 @@
         <v>33263</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25112</v>
+        <v>25822</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43846</v>
+        <v>44964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09333480678212108</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07046516208755892</v>
+        <v>0.07245477678701119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1230316748267116</v>
+        <v>0.1261689865489122</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -7811,19 +7811,19 @@
         <v>59857</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48074</v>
+        <v>47727</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75292</v>
+        <v>73374</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08902298494275876</v>
+        <v>0.08902298494275875</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07149935222073545</v>
+        <v>0.07098282757779996</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1119793282635922</v>
+        <v>0.1091265341540658</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>289399</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>278259</v>
+        <v>279322</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>297221</v>
+        <v>296467</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9158399416507738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8805867403531159</v>
+        <v>0.8839511878682391</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9405950369786206</v>
+        <v>0.938208630246929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>487</v>
@@ -7861,19 +7861,19 @@
         <v>323118</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312535</v>
+        <v>311417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>331269</v>
+        <v>330559</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.906665193217879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.876968325173288</v>
+        <v>0.8738310134510878</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.929534837912441</v>
+        <v>0.9275452232129887</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>812</v>
@@ -7882,19 +7882,19 @@
         <v>612518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>597083</v>
+        <v>599001</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>624301</v>
+        <v>624648</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9109770150572415</v>
+        <v>0.9109770150572412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8880206717364081</v>
+        <v>0.8908734658459343</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9285006477792646</v>
+        <v>0.9290171724222002</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>27654</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18131</v>
+        <v>17145</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44216</v>
+        <v>43054</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07411038549400603</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04859040669074392</v>
+        <v>0.04594630912574139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1184948640801115</v>
+        <v>0.1153812993035305</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -8007,19 +8007,19 @@
         <v>38211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26181</v>
+        <v>26216</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55276</v>
+        <v>56711</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09055586004486538</v>
+        <v>0.0905558600448654</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06204600834103293</v>
+        <v>0.06212927402696041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1309974981646189</v>
+        <v>0.1343982223349052</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -8028,19 +8028,19 @@
         <v>65865</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49145</v>
+        <v>49962</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89224</v>
+        <v>87692</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08283796402701069</v>
+        <v>0.08283796402701064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0618089562459196</v>
+        <v>0.06283647461332459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1122158385865248</v>
+        <v>0.1102901629893711</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>345491</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>328929</v>
+        <v>330091</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355014</v>
+        <v>356000</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9258896145059941</v>
+        <v>0.9258896145059939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8815051359198879</v>
+        <v>0.8846187006964682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.951409593309256</v>
+        <v>0.9540536908742581</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>555</v>
@@ -8078,19 +8078,19 @@
         <v>383750</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366685</v>
+        <v>365250</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>395780</v>
+        <v>395745</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9094441399551347</v>
+        <v>0.9094441399551348</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8690025018353816</v>
+        <v>0.8656017776650947</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9379539916589672</v>
+        <v>0.9378707259730396</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>823</v>
@@ -8099,19 +8099,19 @@
         <v>729242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>705883</v>
+        <v>707415</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>745962</v>
+        <v>745145</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9171620359729893</v>
+        <v>0.9171620359729892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.887784161413475</v>
+        <v>0.8897098370106289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9381910437540804</v>
+        <v>0.9371635253866754</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>4533</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2173</v>
+        <v>1917</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8644</v>
+        <v>8985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02204193883925398</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01056683485883605</v>
+        <v>0.009319465779768827</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04202750181900403</v>
+        <v>0.04368935972469778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -8224,19 +8224,19 @@
         <v>8980</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5592</v>
+        <v>5830</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13943</v>
+        <v>13118</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03952094492369304</v>
+        <v>0.03952094492369303</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02461120559327982</v>
+        <v>0.0256581280256217</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06136482343488142</v>
+        <v>0.05773542290984003</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -8245,19 +8245,19 @@
         <v>13513</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9247</v>
+        <v>9339</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19053</v>
+        <v>19716</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03121651935784944</v>
+        <v>0.03121651935784945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02136171233598884</v>
+        <v>0.02157447591035631</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04401570107155681</v>
+        <v>0.04554577500532216</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>201132</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197021</v>
+        <v>196680</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203492</v>
+        <v>203748</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.977958061160746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9579724981809959</v>
+        <v>0.9563106402753019</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9894331651411641</v>
+        <v>0.9906805342202302</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>471</v>
@@ -8295,19 +8295,19 @@
         <v>218235</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>213272</v>
+        <v>214097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>221623</v>
+        <v>221385</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.960479055076307</v>
+        <v>0.9604790550763068</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9386351765651182</v>
+        <v>0.94226457709016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9753887944067201</v>
+        <v>0.9743418719743782</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>742</v>
@@ -8316,19 +8316,19 @@
         <v>419366</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>413826</v>
+        <v>413163</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423632</v>
+        <v>423540</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9687834806421506</v>
+        <v>0.9687834806421507</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9559842989284433</v>
+        <v>0.9544542249946779</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9786382876640112</v>
+        <v>0.9784255240896437</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>24261</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17370</v>
+        <v>18062</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32922</v>
+        <v>33468</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08962187410254562</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0641661847101286</v>
+        <v>0.06672233766068993</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1216140960493349</v>
+        <v>0.1236319218736811</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -8441,19 +8441,19 @@
         <v>22302</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15729</v>
+        <v>15507</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30267</v>
+        <v>29842</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.08455803708216023</v>
+        <v>0.08455803708216021</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0596347140766121</v>
+        <v>0.05879350212129307</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1147563666241306</v>
+        <v>0.113145646583031</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -8462,19 +8462,19 @@
         <v>46563</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37239</v>
+        <v>37065</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56867</v>
+        <v>57970</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08712291195095688</v>
+        <v>0.08712291195095687</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06967598900103136</v>
+        <v>0.0693514154554609</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1064015383305592</v>
+        <v>0.1084661125497589</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>246446</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237785</v>
+        <v>237239</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253337</v>
+        <v>252645</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9103781258974544</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8783859039506658</v>
+        <v>0.8763680781263189</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9358338152898714</v>
+        <v>0.9332776623393101</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>419</v>
@@ -8512,19 +8512,19 @@
         <v>241448</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>233483</v>
+        <v>233908</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248021</v>
+        <v>248243</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9154419629178399</v>
+        <v>0.9154419629178396</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8852436333758694</v>
+        <v>0.8868543534169686</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.940365285923388</v>
+        <v>0.9412064978787066</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>749</v>
@@ -8533,19 +8533,19 @@
         <v>487894</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>477590</v>
+        <v>476487</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>497218</v>
+        <v>497392</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9128770880490431</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8935984616694405</v>
+        <v>0.8915338874502432</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9303240109989686</v>
+        <v>0.9306485845445392</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>43422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32638</v>
+        <v>32362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59375</v>
+        <v>58940</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06033471042112201</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04535071045489379</v>
+        <v>0.04496723985205574</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08250157613112463</v>
+        <v>0.08189731266778577</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -8658,19 +8658,19 @@
         <v>63813</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51734</v>
+        <v>51370</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80313</v>
+        <v>78705</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0826535532320555</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06700801390058289</v>
+        <v>0.06653633405343949</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1040242119799101</v>
+        <v>0.1019422175062287</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>126</v>
@@ -8679,19 +8679,19 @@
         <v>107235</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89190</v>
+        <v>90168</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>127190</v>
+        <v>129389</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07188589870623208</v>
+        <v>0.07188589870623209</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05978901715098563</v>
+        <v>0.06044484811618726</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08526276853404463</v>
+        <v>0.08673684154082444</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>676265</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>660312</v>
+        <v>660747</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>687049</v>
+        <v>687325</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9396652895788781</v>
+        <v>0.9396652895788782</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9174984238688753</v>
+        <v>0.918102687332214</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9546492895451062</v>
+        <v>0.9550327601479439</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>876</v>
@@ -8729,19 +8729,19 @@
         <v>708244</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>691744</v>
+        <v>693352</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>720323</v>
+        <v>720687</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9173464467679443</v>
+        <v>0.9173464467679444</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.89597578802009</v>
+        <v>0.8980577824937713</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.932991986099417</v>
+        <v>0.9334636659465606</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1433</v>
@@ -8750,19 +8750,19 @@
         <v>1384509</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1364554</v>
+        <v>1362355</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1402554</v>
+        <v>1401576</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9281141012937679</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9147372314659554</v>
+        <v>0.9132631584591758</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9402109828490144</v>
+        <v>0.9395551518838127</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>26101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17657</v>
+        <v>17939</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37235</v>
+        <v>36780</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03270536379747731</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0221249194141227</v>
+        <v>0.02247847956827158</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04665587838281361</v>
+        <v>0.04608623585494245</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -8875,19 +8875,19 @@
         <v>32294</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22716</v>
+        <v>22478</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44250</v>
+        <v>44412</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03887947299365453</v>
+        <v>0.03887947299365454</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02734889973633159</v>
+        <v>0.02706248070341531</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05327418931357503</v>
+        <v>0.05346917518064223</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -8896,19 +8896,19 @@
         <v>58395</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45212</v>
+        <v>44201</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72568</v>
+        <v>74188</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03585408976261403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02775971197888214</v>
+        <v>0.02713914985282877</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04455619051661893</v>
+        <v>0.04555076698526667</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>771971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>760837</v>
+        <v>761292</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>780415</v>
+        <v>780133</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9672946362025228</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9533441216171863</v>
+        <v>0.9539137641450575</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9778750805858771</v>
+        <v>0.9775215204317285</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1023</v>
@@ -8946,19 +8946,19 @@
         <v>798315</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>786359</v>
+        <v>786197</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>807893</v>
+        <v>808131</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9611205270063453</v>
+        <v>0.9611205270063455</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9467258106864249</v>
+        <v>0.9465308248193575</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9726511002636685</v>
+        <v>0.9729375192965847</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1756</v>
@@ -8967,19 +8967,19 @@
         <v>1570286</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1556113</v>
+        <v>1554493</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1583469</v>
+        <v>1584480</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9641459102373859</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9554438094833813</v>
+        <v>0.9544492330147334</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9722402880211181</v>
+        <v>0.9728608501471711</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>205178</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>176898</v>
+        <v>177418</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>232305</v>
+        <v>236261</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05807871965949284</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05007353394387337</v>
+        <v>0.05022066642849589</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06575732561375243</v>
+        <v>0.06687726761559298</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>344</v>
@@ -9092,19 +9092,19 @@
         <v>245467</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>219545</v>
+        <v>218389</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>277367</v>
+        <v>274746</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06572909020462114</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05878792459887847</v>
+        <v>0.05847830381162596</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07427086192791184</v>
+        <v>0.07356900661473674</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>572</v>
@@ -9113,19 +9113,19 @@
         <v>450645</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>409453</v>
+        <v>413958</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>490798</v>
+        <v>493428</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06201010610419751</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05634193505176748</v>
+        <v>0.05696182072329446</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06753522921335316</v>
+        <v>0.06789716671545261</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3327584</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3300457</v>
+        <v>3296501</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3355864</v>
+        <v>3355344</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9419212803405074</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9342426743862479</v>
+        <v>0.933122732384407</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9499264660561269</v>
+        <v>0.9497793335715041</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5019</v>
@@ -9163,19 +9163,19 @@
         <v>3489062</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3457162</v>
+        <v>3459783</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3514984</v>
+        <v>3516140</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9342709097953787</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9257291380720881</v>
+        <v>0.9264309933852627</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9412120754011215</v>
+        <v>0.9415216961883739</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8167</v>
@@ -9184,19 +9184,19 @@
         <v>6816646</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6776493</v>
+        <v>6773863</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6857838</v>
+        <v>6853333</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9379898938958026</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9324647707866469</v>
+        <v>0.932102833284547</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9436580649482329</v>
+        <v>0.9430381792767055</v>
       </c>
     </row>
     <row r="30">
